--- a/excel_files/Comparison - NC_012793 & Ancestor 18.xlsx
+++ b/excel_files/Comparison - NC_012793 & Ancestor 18.xlsx
@@ -74,160 +74,160 @@
     <t xml:space="preserve"> -Arg_CG</t>
   </si>
   <si>
-    <t xml:space="preserve"> Arg_CGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -Ala_GCC</t>
-  </si>
-  <si>
-    <t>[16S, 23S, Asn_AAC, Ser_UCC, Glu_GAA, Val_GUA, Met_AUG, Asp_GAC, Phe_UUC, Thr_ACG, Tyr_UAC, Trp_UGG, His_CAC, Gln_CAA, Gly_GGC, Cys_UGC, Leu_UUG]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arg_AGA</t>
-  </si>
-  <si>
-    <t>[16S, 23S, Arg_CGU, Gln_CAA, Gly_GGC, Cys_UGC, Gly_GGG, Ile_AUC, Arg_AGA]</t>
-  </si>
-  <si>
-    <t>[Pro_CCG, Ala_GCG, Ser_UCG]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -Val_GUC</t>
-  </si>
-  <si>
-    <t>-[Gly_GGA, Glu_GAA, Ser_AGC, Asn_AAC, Ile_AUC, Gly_GGA, His_CAC, Thr_ACA, Phe_UUC, Asp_GAC, Met_AUG, Ser_UCA, Met_AUG, Met_AUG, Ala_GCA, Pro_CCA, Arg_CGU, Leu_UUA, Gly_GGC, Leu_CUA, Lys_AAA, Thr_ACA, Val_GUA, 23S, 16S]</t>
-  </si>
-  <si>
-    <t>-[5S, 23S, 16S]</t>
-  </si>
-  <si>
-    <t>-[Asp_GAC, Met_AUG, 5S, 23S, 16S, Gly_GGA, Pro_CCA, Arg_CGU, Leu_CUC, Leu_CUA, Lys_AAA, Gln_CAA, Asp_GAC, Glu_GAA, Ser_AGC, Asn_AAC]</t>
+    <t>[16S, Ile_AUC,Ala_GCA,23S,5S]</t>
+  </si>
+  <si>
+    <t>[ , S,e,r,_,U,C,A]</t>
+  </si>
+  <si>
+    <t>[16S, 23S,5S,Val_GUA,Lys_AAA,Leu_CUG,Gly_GGC,Leu_UUA,Arg_CGU,Pro_CCA,Ala_GCA,16S,23S,5S]</t>
+  </si>
+  <si>
+    <t>[16S, 23S,5S,Asn_AAC,Thr_ACC,Glu_GAA,Val_GUA,Thr_ACA,Tyr_UAC,Gln_CAA,Lys_AAA,Gly_GGC,Ala_GCA]</t>
+  </si>
+  <si>
+    <t>[ , A,r,g,_,C,G,G]</t>
+  </si>
+  <si>
+    <t>[ , -,A,l,a,_,G,C,C]</t>
+  </si>
+  <si>
+    <t>[16S, 23S,Asn_AAC,Ser_UCC,Glu_GAA,Val_GUA,Met_AUG,Asp_GAC,Phe_UUC,Thr_ACG,Tyr_UAC,Trp_UGG,His_CAC,Gln_CAA,Gly_GGC,Cys_UGC,Leu_UUG]</t>
+  </si>
+  <si>
+    <t>[ , A,r,g,_,A,G,A]</t>
+  </si>
+  <si>
+    <t>[16S, 23S,Arg_CGU,Gln_CAA,Gly_GGC,Cys_UGC,Gly_GGG,Ile_AUC,Arg_AGA]</t>
+  </si>
+  <si>
+    <t>[Pro_CCG, Ala_GCG,Ser_UCG]</t>
+  </si>
+  <si>
+    <t>[ , -,V,a,l,_,G,U,C]</t>
+  </si>
+  <si>
+    <t>[Gly_GGA, Glu_GAA,Ser_AGC,Asn_AAC,Ile_AUC,Gly_GGA,His_CAC,Thr_ACA,Phe_UUC,Asp_GAC,Met_AUG,Ser_UCA,Met_AUG,Met_AUG,Ala_GCA,Pro_CCA,Arg_CGU,Leu_UUA,Gly_GGC,Leu_CUA,Lys_AAA,Thr_ACA,Val_GUA,23S,16S]</t>
+  </si>
+  <si>
+    <t>[5S, 23S,16S]</t>
+  </si>
+  <si>
+    <t>[Asp_GAC, Met_AUG,5S,23S,16S,Gly_GGA,Pro_CCA,Arg_CGU,Leu_CUC,Leu_CUA,Lys_AAA,Gln_CAA,Asp_GAC,Glu_GAA,Ser_AGC,Asn_AAC]</t>
   </si>
   <si>
     <t>0.0*</t>
   </si>
   <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
     <t>-999</t>
   </si>
   <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>16.0*</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
+    <t>2.0*</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>24.0*</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>3.0*</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>17.0</t>
   </si>
   <si>
     <t>18.0</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>0*</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>19.5</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>14.5</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>1.0*</t>
   </si>
   <si>
     <t>17.5</t>
-  </si>
-  <si>
-    <t>27.5</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>18.5</t>
-  </si>
-  <si>
-    <t>25.5</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>1.0*</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>3.0*</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>13.5</t>
   </si>
 </sst>
 </file>
@@ -579,52 +579,52 @@
     </row>
     <row r="2" spans="1:18">
       <c r="C2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -632,52 +632,52 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -685,52 +685,52 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -738,52 +738,52 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -794,52 +794,52 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" t="s">
         <v>45</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -847,52 +847,52 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -900,52 +900,52 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s">
         <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Q8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -953,52 +953,52 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s">
         <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s">
         <v>54</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="O9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1006,52 +1006,52 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
         <v>57</v>
       </c>
       <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="R10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1059,52 +1059,52 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
         <v>59</v>
       </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
         <v>60</v>
       </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>37</v>
-      </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" t="s">
         <v>61</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" t="s">
-        <v>45</v>
-      </c>
       <c r="R11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1112,52 +1112,52 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="O12" t="s">
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1165,52 +1165,52 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1218,52 +1218,52 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1271,52 +1271,52 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1324,52 +1324,52 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" t="s">
         <v>65</v>
       </c>
-      <c r="N16" t="s">
-        <v>66</v>
-      </c>
       <c r="O16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q16" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="R16" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -1377,52 +1377,52 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:18">
@@ -1430,52 +1430,52 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="L18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" t="s">
         <v>70</v>
       </c>
-      <c r="I18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" t="s">
-        <v>49</v>
-      </c>
       <c r="O18" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q18" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="R18" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -1483,52 +1483,52 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
       </c>
       <c r="K19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:18">
@@ -1536,52 +1536,52 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1604,52 +1604,52 @@
     </row>
     <row r="2" spans="1:18">
       <c r="C2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:18">
